--- a/Source/feature_sample_check10_18.xlsx
+++ b/Source/feature_sample_check10_18.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work2\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GISwork\work10_18\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C216C6-A728-4E0A-A81A-9E1B1D0D7A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4943EC82-D760-410D-8170-BC646C307A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="177">
   <si>
     <t>CNT</t>
   </si>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A586" workbookViewId="0">
-      <selection activeCell="F591" sqref="F591"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1185,6 +1185,9 @@
       <c r="E20" s="1">
         <v>12697104</v>
       </c>
+      <c r="F20" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1202,6 +1205,9 @@
       <c r="E22" s="1">
         <v>12696708</v>
       </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1219,6 +1225,9 @@
       <c r="E24" s="1">
         <v>6820466</v>
       </c>
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1236,6 +1245,9 @@
       <c r="E26" s="1">
         <v>6823779</v>
       </c>
+      <c r="F26" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1253,6 +1265,9 @@
       <c r="E28" s="1">
         <v>6773652</v>
       </c>
+      <c r="F28" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1270,6 +1285,9 @@
       <c r="E30" s="1">
         <v>8038841</v>
       </c>
+      <c r="F30" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1287,6 +1305,9 @@
       <c r="E32" s="1">
         <v>11879107</v>
       </c>
+      <c r="F32" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1364,6 +1385,9 @@
       <c r="E40" s="1">
         <v>12987766</v>
       </c>
+      <c r="F40" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -6676,7 +6700,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>906</v>
       </c>
@@ -6693,7 +6717,7 @@
         <v>12959067</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>906</v>
       </c>
@@ -6710,7 +6734,7 @@
         <v>12880389</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>906</v>
       </c>
@@ -6727,7 +6751,7 @@
         <v>11514052</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>906</v>
       </c>
@@ -6744,7 +6768,7 @@
         <v>10420410</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>908</v>
       </c>
@@ -6760,8 +6784,11 @@
       <c r="E618" s="1">
         <v>11835853</v>
       </c>
-    </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F618" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>910</v>
       </c>
@@ -6777,8 +6804,11 @@
       <c r="E620" s="1">
         <v>9871261</v>
       </c>
-    </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F620" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>910</v>
       </c>
@@ -6794,8 +6824,11 @@
       <c r="E622" s="1">
         <v>8010109</v>
       </c>
-    </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F622" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>910</v>
       </c>
@@ -6811,8 +6844,11 @@
       <c r="E624" s="1">
         <v>6504998</v>
       </c>
-    </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F624" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>915</v>
       </c>
@@ -6828,8 +6864,11 @@
       <c r="E626" s="1">
         <v>12892323</v>
       </c>
-    </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F626" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>915</v>
       </c>
@@ -6845,8 +6884,11 @@
       <c r="E628" s="1">
         <v>12880023</v>
       </c>
-    </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F628" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>915</v>
       </c>
@@ -6862,8 +6904,11 @@
       <c r="E630" s="1">
         <v>12956393</v>
       </c>
-    </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F630" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>915</v>
       </c>
@@ -6879,8 +6924,11 @@
       <c r="E632" s="1">
         <v>12537509</v>
       </c>
-    </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F632" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>915</v>
       </c>
@@ -6896,8 +6944,11 @@
       <c r="E634" s="1">
         <v>12460245</v>
       </c>
-    </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F634" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>920</v>
       </c>
@@ -6914,7 +6965,7 @@
         <v>12790597</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>920</v>
       </c>
@@ -6931,7 +6982,7 @@
         <v>12842389</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>920</v>
       </c>
@@ -6948,7 +6999,7 @@
         <v>12385182</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>925</v>
       </c>
@@ -6964,8 +7015,11 @@
       <c r="E642" s="1">
         <v>8530003</v>
       </c>
-    </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F642" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>930</v>
       </c>
@@ -6982,7 +7036,7 @@
         <v>12544311</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>930</v>
       </c>
@@ -6999,7 +7053,7 @@
         <v>12852045</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>930</v>
       </c>
@@ -7016,7 +7070,7 @@
         <v>12891935</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>940</v>
       </c>
@@ -7032,8 +7086,11 @@
       <c r="E650" s="1">
         <v>12790401</v>
       </c>
-    </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F650" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>940</v>
       </c>
@@ -7049,8 +7106,11 @@
       <c r="E652" s="1">
         <v>12782538</v>
       </c>
-    </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F652" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>940</v>
       </c>
@@ -7065,6 +7125,9 @@
       </c>
       <c r="E654" s="1">
         <v>6497336</v>
+      </c>
+      <c r="F654" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
